--- a/models/not-iq-models/df_occupations_not_iq.xlsx
+++ b/models/not-iq-models/df_occupations_not_iq.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Physicists</t>
   </si>
   <si>
-    <t xml:space="preserve">Superior</t>
+    <t xml:space="preserve">Bright</t>
   </si>
   <si>
     <t xml:space="preserve">Biochemists and Biophysicists</t>
